--- a/backend/res/testsheet.xlsx
+++ b/backend/res/testsheet.xlsx
@@ -20,46 +20,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Hohoh
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">&lt;number&gt;
-Min=0
-Max=10000
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
@@ -144,7 +104,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,11 +125,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -303,11 +258,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,10 +291,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,10 +314,10 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -375,10 +330,10 @@
       <c r="A2" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -386,7 +341,7 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -394,7 +349,7 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -402,7 +357,7 @@
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -415,7 +370,7 @@
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -427,7 +382,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -442,7 +396,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
